--- a/U8-dic.xlsx
+++ b/U8-dic.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>PU</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>采购订单子表</t>
+  </si>
+  <si>
+    <t>ComputationUnit</t>
+  </si>
+  <si>
+    <t>计量单位</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,6 +575,14 @@
       </c>
       <c r="B19" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
